--- a/2_Plotting_Statistics/2_Cas3_interference/rawdata_zip/_Cas3 interference_spacer_length.xlsx
+++ b/2_Plotting_Statistics/2_Cas3_interference/rawdata_zip/_Cas3 interference_spacer_length.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/436c92d0988cb4a1/5. Paper work/CRISPR cascade complex/Code and data/2_Plotting_Statistics/2_Cas3_interference/rawdata_zip/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/436c92d0988cb4a1/python/RESPECTevo-Code_Rawdata/2_Plotting_Statistics/2_Cas3_interference/rawdata_zip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="559" documentId="11_119C83C562D1BE6B0602390C1DE32FB8FF7F8D43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF31FC17-6543-4577-BE4A-ECCC4EEF06A7}"/>
+  <xr:revisionPtr revIDLastSave="561" documentId="11_119C83C562D1BE6B0602390C1DE32FB8FF7F8D43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EBF7EB5-622C-4EDF-9C2F-F2B979EC44D3}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="21600" windowHeight="13560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36960" yWindow="960" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="33-417nt" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Interference rate</t>
   </si>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>Spacer</t>
+  </si>
+  <si>
+    <t>Interference_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -139,10 +143,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -421,7 +421,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E059ABB6-AF8B-4365-A5C6-82C59A403F3E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -712,7 +712,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1180,9 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
   <cols>
